--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_极光组.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_极光组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="29760" yWindow="3195" windowWidth="25605" windowHeight="13020"/>
   </bookViews>
@@ -19,8 +14,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.1 新特性|Fix Bug'!$A$1:$S$2</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="150001"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="60">
   <si>
     <t>No</t>
   </si>
@@ -141,16 +135,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>纪维玉、王云飞</t>
-    <rPh sb="0" eb="1">
-      <t>shi'chao</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>chen'shu</t>
-    </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>茅寰寰</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -251,12 +235,42 @@
     <t>蘑菇宝合同详情增加操作历史记录</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>蘑菇宝聚有财还款时支付失败短信提醒</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时器</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾宝碗</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>王云飞</t>
+    <rPh sb="0" eb="1">
+      <t>shi'chao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chen'shu</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -331,6 +345,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -338,6 +353,7 @@
       <sz val="11"/>
       <color theme="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -739,6 +755,74 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -758,7 +842,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1078,17 +1162,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="35.375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="47.5" style="11" customWidth="1"/>
     <col min="3" max="3" width="15" style="10" customWidth="1"/>
     <col min="4" max="4" width="24" style="10" customWidth="1"/>
     <col min="5" max="5" width="9.625" style="10" customWidth="1"/>
@@ -1109,7 +1193,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="27">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1168,18 +1252,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="30" customFormat="1" ht="16.5">
       <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>28</v>
@@ -1195,13 +1279,13 @@
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>30</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="M2" s="23"/>
       <c r="N2" s="16"/>
@@ -1212,12 +1296,12 @@
       <c r="S2" s="23"/>
       <c r="T2" s="29"/>
     </row>
-    <row r="3" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A3" s="14">
         <v>2</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>27</v>
@@ -1239,13 +1323,13 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>30</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="M3" s="23"/>
       <c r="N3" s="16"/>
@@ -1256,18 +1340,18 @@
       <c r="S3" s="27"/>
       <c r="T3" s="28"/>
     </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A4" s="14">
         <v>3</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>28</v>
@@ -1283,13 +1367,13 @@
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>30</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="M4" s="23"/>
       <c r="N4" s="16"/>
@@ -1300,18 +1384,18 @@
       <c r="S4" s="27"/>
       <c r="T4" s="28"/>
     </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A5" s="14">
         <v>4</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>28</v>
@@ -1327,13 +1411,13 @@
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>30</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="M5" s="23"/>
       <c r="N5" s="16"/>
@@ -1344,18 +1428,18 @@
       <c r="S5" s="27"/>
       <c r="T5" s="28"/>
     </row>
-    <row r="6" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" s="9" customFormat="1" ht="17.25" customHeight="1">
       <c r="A6" s="14">
         <v>5</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>28</v>
@@ -1371,13 +1455,13 @@
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>30</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="M6" s="23"/>
       <c r="N6" s="16"/>
@@ -1388,18 +1472,18 @@
       <c r="S6" s="27"/>
       <c r="T6" s="28"/>
     </row>
-    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A7" s="14">
         <v>6</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>28</v>
@@ -1415,13 +1499,13 @@
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>30</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="M7" s="23"/>
       <c r="N7" s="16"/>
@@ -1432,40 +1516,40 @@
       <c r="S7" s="27"/>
       <c r="T7" s="28"/>
     </row>
-    <row r="8" spans="1:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" s="37" customFormat="1" ht="16.5">
       <c r="A8" s="14">
         <v>7</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="31" t="s">
         <v>34</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>35</v>
       </c>
       <c r="F8" s="16">
         <v>42625</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="16">
         <v>42625</v>
       </c>
       <c r="I8" s="31"/>
       <c r="J8" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>30</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="M8" s="23"/>
       <c r="N8" s="32"/>
@@ -1476,40 +1560,40 @@
       <c r="S8" s="35"/>
       <c r="T8" s="36"/>
     </row>
-    <row r="9" spans="1:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" s="37" customFormat="1" ht="16.5">
       <c r="A9" s="14">
         <v>8</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="31" t="s">
-        <v>37</v>
-      </c>
       <c r="E9" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="16">
         <v>42625</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="16">
         <v>42625</v>
       </c>
       <c r="I9" s="31"/>
       <c r="J9" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>30</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="M9" s="23"/>
       <c r="N9" s="32"/>
@@ -1520,40 +1604,40 @@
       <c r="S9" s="35"/>
       <c r="T9" s="36"/>
     </row>
-    <row r="10" spans="1:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" s="37" customFormat="1" ht="16.5">
       <c r="A10" s="14">
         <v>9</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="31" t="s">
         <v>34</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>35</v>
       </c>
       <c r="F10" s="32">
         <v>42627</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="32">
         <v>42627</v>
       </c>
       <c r="I10" s="31"/>
       <c r="J10" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>30</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="M10" s="23"/>
       <c r="N10" s="32"/>
@@ -1564,40 +1648,40 @@
       <c r="S10" s="35"/>
       <c r="T10" s="36"/>
     </row>
-    <row r="11" spans="1:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" s="37" customFormat="1" ht="16.5">
       <c r="A11" s="14">
         <v>10</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="31" t="s">
         <v>34</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>35</v>
       </c>
       <c r="F11" s="32">
         <v>42627</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="32">
         <v>42627</v>
       </c>
       <c r="I11" s="31"/>
       <c r="J11" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>30</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="M11" s="23"/>
       <c r="N11" s="32"/>
@@ -1608,40 +1692,40 @@
       <c r="S11" s="35"/>
       <c r="T11" s="36"/>
     </row>
-    <row r="12" spans="1:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" s="37" customFormat="1" ht="16.5">
       <c r="A12" s="14">
         <v>11</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="31" t="s">
         <v>34</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>35</v>
       </c>
       <c r="F12" s="32">
         <v>42627</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" s="32">
         <v>42627</v>
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>30</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="M12" s="23"/>
       <c r="N12" s="32"/>
@@ -1652,19 +1736,41 @@
       <c r="S12" s="35"/>
       <c r="T12" s="36"/>
     </row>
-    <row r="13" spans="1:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
+    <row r="13" spans="1:20" s="37" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="32">
+        <v>42633</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="32">
+        <v>42633</v>
+      </c>
       <c r="I13" s="31"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="15"/>
+      <c r="J13" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="M13" s="23"/>
       <c r="N13" s="32"/>
       <c r="O13" s="23"/>
@@ -1674,7 +1780,7 @@
       <c r="S13" s="35"/>
       <c r="T13" s="36"/>
     </row>
-    <row r="14" spans="1:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="37" customFormat="1" ht="16.5">
       <c r="A14" s="14"/>
       <c r="B14" s="39"/>
       <c r="C14" s="15"/>
@@ -1696,7 +1802,7 @@
       <c r="S14" s="35"/>
       <c r="T14" s="36"/>
     </row>
-    <row r="15" spans="1:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" s="37" customFormat="1" ht="16.5">
       <c r="A15" s="14"/>
       <c r="B15" s="39"/>
       <c r="C15" s="15"/>
@@ -1718,7 +1824,7 @@
       <c r="S15" s="35"/>
       <c r="T15" s="36"/>
     </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A16" s="14"/>
       <c r="B16" s="39"/>
       <c r="C16" s="15"/>
@@ -1740,7 +1846,7 @@
       <c r="S16" s="27"/>
       <c r="T16" s="28"/>
     </row>
-    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A17" s="14"/>
       <c r="B17" s="39"/>
       <c r="C17" s="15"/>
@@ -1762,7 +1868,7 @@
       <c r="S17" s="27"/>
       <c r="T17" s="28"/>
     </row>
-    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A18" s="14"/>
       <c r="B18" s="39"/>
       <c r="C18" s="15"/>
@@ -1784,7 +1890,7 @@
       <c r="S18" s="27"/>
       <c r="T18" s="28"/>
     </row>
-    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A19" s="14"/>
       <c r="B19" s="39"/>
       <c r="C19" s="15"/>
@@ -1806,7 +1912,7 @@
       <c r="S19" s="27"/>
       <c r="T19" s="28"/>
     </row>
-    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A20" s="14"/>
       <c r="B20" s="39"/>
       <c r="C20" s="15"/>
@@ -1828,7 +1934,7 @@
       <c r="S20" s="27"/>
       <c r="T20" s="28"/>
     </row>
-    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A21" s="14"/>
       <c r="B21" s="39"/>
       <c r="C21" s="15"/>
@@ -1850,7 +1956,7 @@
       <c r="S21" s="27"/>
       <c r="T21" s="28"/>
     </row>
-    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A22" s="14"/>
       <c r="B22" s="39"/>
       <c r="C22" s="15"/>
@@ -1872,7 +1978,7 @@
       <c r="S22" s="27"/>
       <c r="T22" s="28"/>
     </row>
-    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A23" s="14"/>
       <c r="B23" s="21"/>
       <c r="C23" s="15"/>
@@ -1894,7 +2000,7 @@
       <c r="S23" s="27"/>
       <c r="T23" s="28"/>
     </row>
-    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A24" s="14"/>
       <c r="B24" s="21"/>
       <c r="C24" s="15"/>
@@ -1916,7 +2022,7 @@
       <c r="S24" s="27"/>
       <c r="T24" s="28"/>
     </row>
-    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A25" s="14"/>
       <c r="B25" s="21"/>
       <c r="C25" s="15"/>
@@ -1938,7 +2044,7 @@
       <c r="S25" s="27"/>
       <c r="T25" s="28"/>
     </row>
-    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A26" s="14"/>
       <c r="B26" s="21"/>
       <c r="C26" s="15"/>
@@ -1960,7 +2066,7 @@
       <c r="S26" s="27"/>
       <c r="T26" s="28"/>
     </row>
-    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A27" s="14"/>
       <c r="B27" s="21"/>
       <c r="C27" s="15"/>
@@ -1982,7 +2088,7 @@
       <c r="S27" s="27"/>
       <c r="T27" s="28"/>
     </row>
-    <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A28" s="14"/>
       <c r="B28" s="21"/>
       <c r="C28" s="15"/>
@@ -2004,7 +2110,7 @@
       <c r="S28" s="27"/>
       <c r="T28" s="28"/>
     </row>
-    <row r="29" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A29" s="14"/>
       <c r="B29" s="21"/>
       <c r="C29" s="15"/>
@@ -2026,7 +2132,7 @@
       <c r="S29" s="27"/>
       <c r="T29" s="28"/>
     </row>
-    <row r="30" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A30" s="14"/>
       <c r="B30" s="21"/>
       <c r="C30" s="17"/>
@@ -2048,7 +2154,7 @@
       <c r="S30" s="27"/>
       <c r="T30" s="28"/>
     </row>
-    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A31" s="14"/>
       <c r="B31" s="21"/>
       <c r="C31" s="17"/>
@@ -2070,7 +2176,7 @@
       <c r="S31" s="27"/>
       <c r="T31" s="28"/>
     </row>
-    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A32" s="14"/>
       <c r="B32" s="21"/>
       <c r="C32" s="20"/>
@@ -2092,7 +2198,7 @@
       <c r="S32" s="27"/>
       <c r="T32" s="28"/>
     </row>
-    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A33" s="14"/>
       <c r="B33" s="21"/>
       <c r="C33" s="20"/>
@@ -2114,7 +2220,7 @@
       <c r="S33" s="27"/>
       <c r="T33" s="28"/>
     </row>
-    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A34" s="14"/>
       <c r="B34" s="21"/>
       <c r="C34" s="20"/>
@@ -2136,7 +2242,7 @@
       <c r="S34" s="27"/>
       <c r="T34" s="28"/>
     </row>
-    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A35" s="14"/>
       <c r="B35" s="21"/>
       <c r="C35" s="20"/>
@@ -2158,7 +2264,7 @@
       <c r="S35" s="27"/>
       <c r="T35" s="28"/>
     </row>
-    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A36" s="17"/>
       <c r="B36" s="21"/>
       <c r="C36" s="20"/>
@@ -2180,7 +2286,7 @@
       <c r="S36" s="18"/>
       <c r="T36" s="28"/>
     </row>
-    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A37" s="17"/>
       <c r="B37" s="21"/>
       <c r="C37" s="20"/>
@@ -2202,7 +2308,7 @@
       <c r="S37" s="18"/>
       <c r="T37" s="28"/>
     </row>
-    <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" ht="16.5">
       <c r="A38" s="20"/>
       <c r="B38" s="21"/>
       <c r="C38" s="20"/>
@@ -2223,7 +2329,7 @@
       <c r="R38" s="20"/>
       <c r="S38" s="21"/>
     </row>
-    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20" ht="16.5">
       <c r="A39" s="20"/>
       <c r="B39" s="21"/>
       <c r="C39" s="20"/>
@@ -2244,7 +2350,7 @@
       <c r="R39" s="20"/>
       <c r="S39" s="21"/>
     </row>
-    <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20" ht="16.5">
       <c r="A40" s="20"/>
       <c r="B40" s="21"/>
       <c r="C40" s="20"/>
@@ -2265,7 +2371,7 @@
       <c r="R40" s="20"/>
       <c r="S40" s="21"/>
     </row>
-    <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" ht="16.5">
       <c r="A41" s="20"/>
       <c r="B41" s="21"/>
       <c r="C41" s="20"/>
@@ -2286,7 +2392,7 @@
       <c r="R41" s="20"/>
       <c r="S41" s="21"/>
     </row>
-    <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20" ht="16.5">
       <c r="A42" s="20"/>
       <c r="B42" s="21"/>
       <c r="C42" s="20"/>
@@ -2307,7 +2413,7 @@
       <c r="R42" s="20"/>
       <c r="S42" s="21"/>
     </row>
-    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20" ht="16.5">
       <c r="A43" s="20"/>
       <c r="B43" s="21"/>
       <c r="C43" s="20"/>
@@ -2328,7 +2434,7 @@
       <c r="R43" s="20"/>
       <c r="S43" s="21"/>
     </row>
-    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20" ht="16.5">
       <c r="A44" s="20"/>
       <c r="B44" s="21"/>
       <c r="C44" s="20"/>
@@ -2349,7 +2455,7 @@
       <c r="R44" s="20"/>
       <c r="S44" s="21"/>
     </row>
-    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20" ht="16.5">
       <c r="A45" s="20"/>
       <c r="B45" s="21"/>
       <c r="C45" s="20"/>
@@ -2370,7 +2476,7 @@
       <c r="R45" s="20"/>
       <c r="S45" s="21"/>
     </row>
-    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20" ht="16.5">
       <c r="A46" s="20"/>
       <c r="B46" s="21"/>
       <c r="C46" s="20"/>
@@ -2391,7 +2497,7 @@
       <c r="R46" s="20"/>
       <c r="S46" s="21"/>
     </row>
-    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20" ht="16.5">
       <c r="A47" s="20"/>
       <c r="B47" s="21"/>
       <c r="C47" s="20"/>
@@ -2412,7 +2518,7 @@
       <c r="R47" s="20"/>
       <c r="S47" s="21"/>
     </row>
-    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20" ht="16.5">
       <c r="A48" s="20"/>
       <c r="B48" s="21"/>
       <c r="C48" s="20"/>
@@ -2433,7 +2539,7 @@
       <c r="R48" s="20"/>
       <c r="S48" s="21"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" ht="16.5">
       <c r="A49" s="20"/>
       <c r="B49" s="21"/>
       <c r="C49" s="20"/>
@@ -2454,7 +2560,7 @@
       <c r="R49" s="20"/>
       <c r="S49" s="21"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" ht="16.5">
       <c r="A50" s="20"/>
       <c r="B50" s="21"/>
       <c r="C50" s="20"/>
@@ -2475,7 +2581,7 @@
       <c r="R50" s="20"/>
       <c r="S50" s="21"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" ht="16.5">
       <c r="A51" s="20"/>
       <c r="B51" s="21"/>
       <c r="C51" s="20"/>
@@ -2496,7 +2602,7 @@
       <c r="R51" s="20"/>
       <c r="S51" s="21"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" ht="16.5">
       <c r="A52" s="20"/>
       <c r="B52" s="21"/>
       <c r="C52" s="20"/>
@@ -2517,7 +2623,7 @@
       <c r="R52" s="20"/>
       <c r="S52" s="21"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" ht="16.5">
       <c r="A53" s="20"/>
       <c r="B53" s="21"/>
       <c r="C53" s="20"/>
@@ -2538,7 +2644,7 @@
       <c r="R53" s="20"/>
       <c r="S53" s="21"/>
     </row>
-    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" ht="16.5">
       <c r="A54" s="20"/>
       <c r="B54" s="21"/>
       <c r="C54" s="20"/>
@@ -2559,7 +2665,7 @@
       <c r="R54" s="20"/>
       <c r="S54" s="21"/>
     </row>
-    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" ht="16.5">
       <c r="A55" s="20"/>
       <c r="B55" s="21"/>
       <c r="C55" s="20"/>
@@ -2580,7 +2686,7 @@
       <c r="R55" s="20"/>
       <c r="S55" s="21"/>
     </row>
-    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" ht="16.5">
       <c r="A56" s="20"/>
       <c r="B56" s="21"/>
       <c r="C56" s="20"/>
@@ -2601,7 +2707,7 @@
       <c r="R56" s="20"/>
       <c r="S56" s="21"/>
     </row>
-    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" ht="16.5">
       <c r="A57" s="20"/>
       <c r="B57" s="21"/>
       <c r="C57" s="20"/>
@@ -2622,7 +2728,7 @@
       <c r="R57" s="20"/>
       <c r="S57" s="21"/>
     </row>
-    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" ht="16.5">
       <c r="A58" s="20"/>
       <c r="B58" s="21"/>
       <c r="C58" s="20"/>
@@ -2643,7 +2749,7 @@
       <c r="R58" s="20"/>
       <c r="S58" s="21"/>
     </row>
-    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" ht="16.5">
       <c r="A59" s="20"/>
       <c r="B59" s="21"/>
       <c r="C59" s="20"/>
@@ -2664,7 +2770,7 @@
       <c r="R59" s="20"/>
       <c r="S59" s="21"/>
     </row>
-    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" ht="16.5">
       <c r="A60" s="20"/>
       <c r="B60" s="21"/>
       <c r="C60" s="20"/>
@@ -2685,7 +2791,7 @@
       <c r="R60" s="20"/>
       <c r="S60" s="21"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" ht="16.5">
       <c r="A61" s="20"/>
       <c r="B61" s="21"/>
       <c r="C61" s="20"/>
@@ -2706,7 +2812,7 @@
       <c r="R61" s="20"/>
       <c r="S61" s="21"/>
     </row>
-    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" ht="16.5">
       <c r="A62" s="20"/>
       <c r="B62" s="21"/>
       <c r="C62" s="20"/>
@@ -2727,7 +2833,7 @@
       <c r="R62" s="20"/>
       <c r="S62" s="21"/>
     </row>
-    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" ht="16.5">
       <c r="A63" s="20"/>
       <c r="B63" s="21"/>
       <c r="C63" s="20"/>
@@ -2748,7 +2854,7 @@
       <c r="R63" s="20"/>
       <c r="S63" s="21"/>
     </row>
-    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" ht="16.5">
       <c r="A64" s="20"/>
       <c r="B64" s="21"/>
       <c r="C64" s="20"/>
@@ -2769,7 +2875,7 @@
       <c r="R64" s="20"/>
       <c r="S64" s="21"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="16.5">
       <c r="A65" s="20"/>
       <c r="B65" s="21"/>
       <c r="C65" s="20"/>
@@ -2790,7 +2896,7 @@
       <c r="R65" s="20"/>
       <c r="S65" s="21"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="16.5">
       <c r="A66" s="20"/>
       <c r="B66" s="21"/>
       <c r="C66" s="20"/>
@@ -2811,7 +2917,7 @@
       <c r="R66" s="20"/>
       <c r="S66" s="21"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="16.5">
       <c r="A67" s="20"/>
       <c r="B67" s="21"/>
       <c r="C67" s="20"/>
@@ -2832,7 +2938,7 @@
       <c r="R67" s="20"/>
       <c r="S67" s="21"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" ht="16.5">
       <c r="A68" s="20"/>
       <c r="B68" s="21"/>
       <c r="C68" s="20"/>
@@ -2853,7 +2959,7 @@
       <c r="R68" s="20"/>
       <c r="S68" s="21"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="16.5">
       <c r="A69" s="20"/>
       <c r="B69" s="21"/>
       <c r="C69" s="20"/>
@@ -2874,7 +2980,7 @@
       <c r="R69" s="20"/>
       <c r="S69" s="21"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="16.5">
       <c r="A70" s="20"/>
       <c r="B70" s="21"/>
       <c r="C70" s="20"/>
@@ -2895,7 +3001,7 @@
       <c r="R70" s="20"/>
       <c r="S70" s="21"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="16.5">
       <c r="A71" s="20"/>
       <c r="B71" s="21"/>
       <c r="C71" s="20"/>
@@ -2916,7 +3022,7 @@
       <c r="R71" s="20"/>
       <c r="S71" s="21"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" ht="16.5">
       <c r="A72" s="20"/>
       <c r="B72" s="21"/>
       <c r="C72" s="20"/>
@@ -2937,7 +3043,7 @@
       <c r="R72" s="20"/>
       <c r="S72" s="21"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" ht="16.5">
       <c r="A73" s="20"/>
       <c r="B73" s="21"/>
       <c r="C73" s="20"/>
@@ -2958,7 +3064,7 @@
       <c r="R73" s="20"/>
       <c r="S73" s="21"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" ht="16.5">
       <c r="A74" s="20"/>
       <c r="B74" s="21"/>
       <c r="C74" s="20"/>
@@ -2979,7 +3085,7 @@
       <c r="R74" s="20"/>
       <c r="S74" s="21"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="16.5">
       <c r="A75" s="20"/>
       <c r="B75" s="21"/>
       <c r="C75" s="20"/>
@@ -3000,7 +3106,7 @@
       <c r="R75" s="20"/>
       <c r="S75" s="21"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="16.5">
       <c r="A76" s="20"/>
       <c r="B76" s="21"/>
       <c r="C76" s="20"/>
@@ -3021,7 +3127,7 @@
       <c r="R76" s="20"/>
       <c r="S76" s="21"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="16.5">
       <c r="A77" s="20"/>
       <c r="B77" s="21"/>
       <c r="C77" s="20"/>
@@ -3042,7 +3148,7 @@
       <c r="R77" s="20"/>
       <c r="S77" s="21"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" ht="16.5">
       <c r="A78" s="20"/>
       <c r="B78" s="21"/>
       <c r="C78" s="20"/>
@@ -3063,7 +3169,7 @@
       <c r="R78" s="20"/>
       <c r="S78" s="21"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" ht="16.5">
       <c r="A79" s="20"/>
       <c r="B79" s="21"/>
       <c r="C79" s="20"/>
@@ -3084,7 +3190,7 @@
       <c r="R79" s="20"/>
       <c r="S79" s="21"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" ht="16.5">
       <c r="A80" s="20"/>
       <c r="B80" s="21"/>
       <c r="C80" s="20"/>
@@ -3105,7 +3211,7 @@
       <c r="R80" s="20"/>
       <c r="S80" s="21"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" ht="16.5">
       <c r="A81" s="20"/>
       <c r="B81" s="21"/>
       <c r="C81" s="20"/>
@@ -3126,7 +3232,7 @@
       <c r="R81" s="20"/>
       <c r="S81" s="21"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" ht="16.5">
       <c r="A82" s="20"/>
       <c r="B82" s="21"/>
       <c r="C82" s="20"/>
@@ -3147,7 +3253,7 @@
       <c r="R82" s="20"/>
       <c r="S82" s="21"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" ht="16.5">
       <c r="A83" s="20"/>
       <c r="B83" s="21"/>
       <c r="C83" s="20"/>
@@ -3168,7 +3274,7 @@
       <c r="R83" s="20"/>
       <c r="S83" s="21"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19" ht="16.5">
       <c r="A84" s="20"/>
       <c r="B84" s="21"/>
       <c r="C84" s="20"/>
@@ -3189,7 +3295,7 @@
       <c r="R84" s="20"/>
       <c r="S84" s="21"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" ht="16.5">
       <c r="A85" s="20"/>
       <c r="B85" s="21"/>
       <c r="C85" s="20"/>
@@ -3210,7 +3316,7 @@
       <c r="R85" s="20"/>
       <c r="S85" s="21"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19" ht="16.5">
       <c r="A86" s="20"/>
       <c r="B86" s="21"/>
       <c r="C86" s="20"/>
@@ -3231,7 +3337,7 @@
       <c r="R86" s="20"/>
       <c r="S86" s="21"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19" ht="16.5">
       <c r="A87" s="20"/>
       <c r="B87" s="21"/>
       <c r="C87" s="20"/>
@@ -3252,7 +3358,7 @@
       <c r="R87" s="20"/>
       <c r="S87" s="21"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19" ht="16.5">
       <c r="A88" s="20"/>
       <c r="B88" s="21"/>
       <c r="C88" s="20"/>
@@ -3273,7 +3379,7 @@
       <c r="R88" s="20"/>
       <c r="S88" s="21"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19" ht="16.5">
       <c r="A89" s="20"/>
       <c r="B89" s="21"/>
       <c r="C89" s="20"/>
@@ -3294,7 +3400,7 @@
       <c r="R89" s="20"/>
       <c r="S89" s="21"/>
     </row>
-    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19" ht="16.5">
       <c r="A90" s="20"/>
       <c r="B90" s="21"/>
       <c r="C90" s="20"/>
@@ -3315,7 +3421,7 @@
       <c r="R90" s="20"/>
       <c r="S90" s="21"/>
     </row>
-    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19" ht="16.5">
       <c r="A91" s="20"/>
       <c r="B91" s="21"/>
       <c r="C91" s="20"/>
@@ -3336,7 +3442,7 @@
       <c r="R91" s="20"/>
       <c r="S91" s="21"/>
     </row>
-    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19" ht="16.5">
       <c r="A92" s="20"/>
       <c r="B92" s="21"/>
       <c r="C92" s="20"/>
@@ -3357,7 +3463,7 @@
       <c r="R92" s="20"/>
       <c r="S92" s="21"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19">
       <c r="A93" s="20"/>
       <c r="B93" s="21"/>
       <c r="C93" s="20"/>
@@ -3378,7 +3484,7 @@
       <c r="R93" s="20"/>
       <c r="S93" s="21"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19">
       <c r="A94" s="20"/>
       <c r="B94" s="21"/>
       <c r="C94" s="20"/>
@@ -3399,7 +3505,7 @@
       <c r="R94" s="20"/>
       <c r="S94" s="21"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19">
       <c r="A95" s="20"/>
       <c r="B95" s="21"/>
       <c r="C95" s="20"/>
@@ -3420,7 +3526,7 @@
       <c r="R95" s="20"/>
       <c r="S95" s="21"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19">
       <c r="A96" s="20"/>
       <c r="B96" s="21"/>
       <c r="C96" s="20"/>
@@ -3441,7 +3547,7 @@
       <c r="R96" s="20"/>
       <c r="S96" s="21"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19">
       <c r="A97" s="20"/>
       <c r="B97" s="21"/>
       <c r="C97" s="20"/>
@@ -3462,7 +3568,7 @@
       <c r="R97" s="20"/>
       <c r="S97" s="21"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19">
       <c r="A98" s="20"/>
       <c r="B98" s="21"/>
       <c r="C98" s="20"/>
@@ -3483,7 +3589,7 @@
       <c r="R98" s="20"/>
       <c r="S98" s="21"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19">
       <c r="A99" s="20"/>
       <c r="B99" s="21"/>
       <c r="C99" s="20"/>
@@ -3504,7 +3610,7 @@
       <c r="R99" s="20"/>
       <c r="S99" s="21"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19">
       <c r="A100" s="20"/>
       <c r="B100" s="21"/>
       <c r="C100" s="20"/>
@@ -3525,7 +3631,7 @@
       <c r="R100" s="20"/>
       <c r="S100" s="21"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19">
       <c r="A101" s="20"/>
       <c r="B101" s="21"/>
       <c r="C101" s="20"/>
@@ -3546,7 +3652,7 @@
       <c r="R101" s="20"/>
       <c r="S101" s="21"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19">
       <c r="A102" s="20"/>
       <c r="B102" s="21"/>
       <c r="C102" s="20"/>
@@ -3567,7 +3673,7 @@
       <c r="R102" s="20"/>
       <c r="S102" s="21"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19">
       <c r="A103" s="20"/>
       <c r="B103" s="21"/>
       <c r="C103" s="20"/>
@@ -3588,7 +3694,7 @@
       <c r="R103" s="20"/>
       <c r="S103" s="21"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19">
       <c r="A104" s="20"/>
       <c r="B104" s="21"/>
       <c r="C104" s="20"/>
@@ -3609,7 +3715,7 @@
       <c r="R104" s="20"/>
       <c r="S104" s="21"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19">
       <c r="A105" s="20"/>
       <c r="B105" s="21"/>
       <c r="C105" s="20"/>
@@ -3630,7 +3736,7 @@
       <c r="R105" s="20"/>
       <c r="S105" s="21"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19">
       <c r="A106" s="20"/>
       <c r="B106" s="21"/>
       <c r="C106" s="20"/>
@@ -3651,7 +3757,7 @@
       <c r="R106" s="20"/>
       <c r="S106" s="21"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19">
       <c r="A107" s="20"/>
       <c r="B107" s="21"/>
       <c r="C107" s="20"/>
@@ -3672,7 +3778,7 @@
       <c r="R107" s="20"/>
       <c r="S107" s="21"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19">
       <c r="A108" s="20"/>
       <c r="B108" s="21"/>
       <c r="C108" s="20"/>
@@ -3693,7 +3799,7 @@
       <c r="R108" s="20"/>
       <c r="S108" s="21"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19">
       <c r="A109" s="20"/>
       <c r="B109" s="21"/>
       <c r="C109" s="20"/>
@@ -3714,7 +3820,7 @@
       <c r="R109" s="20"/>
       <c r="S109" s="21"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19">
       <c r="A110" s="20"/>
       <c r="B110" s="21"/>
       <c r="C110" s="20"/>
@@ -3735,7 +3841,7 @@
       <c r="R110" s="20"/>
       <c r="S110" s="21"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19">
       <c r="A111" s="20"/>
       <c r="B111" s="21"/>
       <c r="C111" s="20"/>
@@ -3756,7 +3862,7 @@
       <c r="R111" s="20"/>
       <c r="S111" s="21"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19">
       <c r="A112" s="20"/>
       <c r="B112" s="21"/>
       <c r="C112" s="20"/>
@@ -3777,7 +3883,7 @@
       <c r="R112" s="20"/>
       <c r="S112" s="21"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19">
       <c r="A113" s="20"/>
       <c r="B113" s="21"/>
       <c r="C113" s="20"/>
@@ -3798,7 +3904,7 @@
       <c r="R113" s="20"/>
       <c r="S113" s="21"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19">
       <c r="A114" s="20"/>
       <c r="B114" s="21"/>
       <c r="C114" s="20"/>
@@ -3819,7 +3925,7 @@
       <c r="R114" s="20"/>
       <c r="S114" s="21"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19">
       <c r="A115" s="20"/>
       <c r="B115" s="21"/>
       <c r="C115" s="20"/>
@@ -3840,7 +3946,7 @@
       <c r="R115" s="20"/>
       <c r="S115" s="21"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19">
       <c r="A116" s="20"/>
       <c r="B116" s="21"/>
       <c r="C116" s="20"/>
@@ -3861,7 +3967,7 @@
       <c r="R116" s="20"/>
       <c r="S116" s="21"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19">
       <c r="A117" s="20"/>
       <c r="B117" s="21"/>
       <c r="C117" s="20"/>
@@ -3882,7 +3988,7 @@
       <c r="R117" s="20"/>
       <c r="S117" s="21"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19">
       <c r="A118" s="20"/>
       <c r="B118" s="21"/>
       <c r="C118" s="20"/>
@@ -3903,7 +4009,7 @@
       <c r="R118" s="20"/>
       <c r="S118" s="21"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19">
       <c r="A119" s="20"/>
       <c r="B119" s="21"/>
       <c r="C119" s="20"/>
@@ -3924,7 +4030,7 @@
       <c r="R119" s="20"/>
       <c r="S119" s="21"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19">
       <c r="A120" s="20"/>
       <c r="B120" s="21"/>
       <c r="C120" s="20"/>
@@ -3945,7 +4051,7 @@
       <c r="R120" s="20"/>
       <c r="S120" s="21"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19">
       <c r="A121" s="20"/>
       <c r="B121" s="21"/>
       <c r="C121" s="20"/>
@@ -3966,7 +4072,7 @@
       <c r="R121" s="20"/>
       <c r="S121" s="21"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19">
       <c r="A122" s="20"/>
       <c r="B122" s="21"/>
       <c r="C122" s="20"/>
@@ -3987,7 +4093,7 @@
       <c r="R122" s="20"/>
       <c r="S122" s="21"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19">
       <c r="A123" s="20"/>
       <c r="B123" s="21"/>
       <c r="C123" s="20"/>
@@ -4008,7 +4114,7 @@
       <c r="R123" s="20"/>
       <c r="S123" s="21"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19">
       <c r="A124" s="20"/>
       <c r="B124" s="21"/>
       <c r="C124" s="20"/>
@@ -4029,7 +4135,7 @@
       <c r="R124" s="20"/>
       <c r="S124" s="21"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19">
       <c r="A125" s="20"/>
       <c r="B125" s="21"/>
       <c r="C125" s="20"/>
@@ -4050,7 +4156,7 @@
       <c r="R125" s="20"/>
       <c r="S125" s="21"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19">
       <c r="A126" s="20"/>
       <c r="B126" s="21"/>
       <c r="C126" s="20"/>
@@ -4071,7 +4177,7 @@
       <c r="R126" s="20"/>
       <c r="S126" s="21"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19">
       <c r="A127" s="20"/>
       <c r="B127" s="21"/>
       <c r="C127" s="20"/>
@@ -4092,7 +4198,7 @@
       <c r="R127" s="20"/>
       <c r="S127" s="21"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19">
       <c r="A128" s="20"/>
       <c r="B128" s="21"/>
       <c r="C128" s="20"/>
@@ -4113,7 +4219,7 @@
       <c r="R128" s="20"/>
       <c r="S128" s="21"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19">
       <c r="A129" s="20"/>
       <c r="B129" s="21"/>
       <c r="C129" s="20"/>
@@ -4134,7 +4240,7 @@
       <c r="R129" s="20"/>
       <c r="S129" s="21"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19">
       <c r="A130" s="20"/>
       <c r="B130" s="21"/>
       <c r="C130" s="20"/>
@@ -4155,7 +4261,7 @@
       <c r="R130" s="20"/>
       <c r="S130" s="21"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19">
       <c r="A131" s="20"/>
       <c r="B131" s="21"/>
       <c r="C131" s="20"/>
@@ -4176,7 +4282,7 @@
       <c r="R131" s="20"/>
       <c r="S131" s="21"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19">
       <c r="A132" s="20"/>
       <c r="B132" s="21"/>
       <c r="C132" s="20"/>
@@ -4197,7 +4303,7 @@
       <c r="R132" s="20"/>
       <c r="S132" s="21"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19">
       <c r="A133" s="20"/>
       <c r="B133" s="21"/>
       <c r="C133" s="20"/>
@@ -4218,7 +4324,7 @@
       <c r="R133" s="20"/>
       <c r="S133" s="21"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19">
       <c r="A134" s="20"/>
       <c r="B134" s="21"/>
       <c r="C134" s="20"/>
@@ -4239,7 +4345,7 @@
       <c r="R134" s="20"/>
       <c r="S134" s="21"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19">
       <c r="A135" s="20"/>
       <c r="B135" s="21"/>
       <c r="C135" s="20"/>
@@ -4260,7 +4366,7 @@
       <c r="R135" s="20"/>
       <c r="S135" s="21"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19">
       <c r="A136" s="20"/>
       <c r="B136" s="21"/>
       <c r="C136" s="20"/>
@@ -4281,7 +4387,7 @@
       <c r="R136" s="20"/>
       <c r="S136" s="21"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19">
       <c r="A137" s="20"/>
       <c r="B137" s="21"/>
       <c r="C137" s="20"/>
@@ -4302,7 +4408,7 @@
       <c r="R137" s="20"/>
       <c r="S137" s="21"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19">
       <c r="A138" s="20"/>
       <c r="B138" s="21"/>
       <c r="C138" s="20"/>
@@ -4323,7 +4429,7 @@
       <c r="R138" s="20"/>
       <c r="S138" s="21"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19">
       <c r="A139" s="20"/>
       <c r="B139" s="21"/>
       <c r="C139" s="20"/>
@@ -4344,7 +4450,7 @@
       <c r="R139" s="20"/>
       <c r="S139" s="21"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19">
       <c r="A140" s="20"/>
       <c r="B140" s="21"/>
       <c r="C140" s="20"/>
@@ -4365,7 +4471,7 @@
       <c r="R140" s="20"/>
       <c r="S140" s="21"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19">
       <c r="A141" s="20"/>
       <c r="B141" s="21"/>
       <c r="C141" s="20"/>
@@ -4386,7 +4492,7 @@
       <c r="R141" s="20"/>
       <c r="S141" s="21"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19">
       <c r="A142" s="20"/>
       <c r="B142" s="21"/>
       <c r="C142" s="20"/>
@@ -4407,7 +4513,7 @@
       <c r="R142" s="20"/>
       <c r="S142" s="21"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19">
       <c r="A143" s="20"/>
       <c r="B143" s="21"/>
       <c r="C143" s="20"/>
@@ -4428,7 +4534,7 @@
       <c r="R143" s="20"/>
       <c r="S143" s="21"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19">
       <c r="A144" s="20"/>
       <c r="B144" s="21"/>
       <c r="C144" s="20"/>
@@ -4449,7 +4555,7 @@
       <c r="R144" s="20"/>
       <c r="S144" s="21"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19">
       <c r="A145" s="20"/>
       <c r="B145" s="21"/>
       <c r="C145" s="20"/>
@@ -4470,7 +4576,7 @@
       <c r="R145" s="20"/>
       <c r="S145" s="21"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19">
       <c r="A146" s="20"/>
       <c r="B146" s="21"/>
       <c r="C146" s="20"/>
@@ -4491,7 +4597,7 @@
       <c r="R146" s="20"/>
       <c r="S146" s="21"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19">
       <c r="A147" s="20"/>
       <c r="B147" s="21"/>
       <c r="C147" s="20"/>
@@ -4512,7 +4618,7 @@
       <c r="R147" s="20"/>
       <c r="S147" s="21"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19">
       <c r="A148" s="20"/>
       <c r="B148" s="21"/>
       <c r="C148" s="20"/>
@@ -4533,7 +4639,7 @@
       <c r="R148" s="20"/>
       <c r="S148" s="21"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19">
       <c r="A149" s="20"/>
       <c r="B149" s="21"/>
       <c r="C149" s="20"/>
@@ -4554,7 +4660,7 @@
       <c r="R149" s="20"/>
       <c r="S149" s="21"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19">
       <c r="A150" s="20"/>
       <c r="B150" s="21"/>
       <c r="C150" s="20"/>
@@ -4575,7 +4681,7 @@
       <c r="R150" s="20"/>
       <c r="S150" s="21"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:19">
       <c r="A151" s="20"/>
       <c r="B151" s="21"/>
       <c r="C151" s="20"/>
@@ -4596,7 +4702,7 @@
       <c r="R151" s="20"/>
       <c r="S151" s="21"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:19">
       <c r="A152" s="20"/>
       <c r="B152" s="21"/>
       <c r="C152" s="20"/>
@@ -4617,7 +4723,7 @@
       <c r="R152" s="20"/>
       <c r="S152" s="21"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:19">
       <c r="A153" s="20"/>
       <c r="B153" s="21"/>
       <c r="C153" s="20"/>
@@ -4638,7 +4744,7 @@
       <c r="R153" s="20"/>
       <c r="S153" s="21"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:19">
       <c r="A154" s="20"/>
       <c r="B154" s="21"/>
       <c r="C154" s="20"/>
@@ -4659,7 +4765,7 @@
       <c r="R154" s="20"/>
       <c r="S154" s="21"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:19">
       <c r="A155" s="20"/>
       <c r="B155" s="21"/>
       <c r="C155" s="20"/>
@@ -4680,7 +4786,7 @@
       <c r="R155" s="20"/>
       <c r="S155" s="21"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:19">
       <c r="A156" s="20"/>
       <c r="B156" s="21"/>
       <c r="C156" s="20"/>
@@ -4701,7 +4807,7 @@
       <c r="R156" s="20"/>
       <c r="S156" s="21"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:19">
       <c r="A157" s="20"/>
       <c r="B157" s="21"/>
       <c r="C157" s="20"/>
@@ -4722,7 +4828,7 @@
       <c r="R157" s="20"/>
       <c r="S157" s="21"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:19">
       <c r="A158" s="20"/>
       <c r="B158" s="21"/>
       <c r="C158" s="20"/>
@@ -4743,7 +4849,7 @@
       <c r="R158" s="20"/>
       <c r="S158" s="21"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:19">
       <c r="A159" s="20"/>
       <c r="B159" s="21"/>
       <c r="C159" s="20"/>
@@ -4761,7 +4867,7 @@
       <c r="O159" s="21"/>
       <c r="S159" s="21"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:19">
       <c r="A160" s="20"/>
       <c r="B160" s="21"/>
       <c r="C160" s="20"/>
@@ -4779,7 +4885,7 @@
       <c r="O160" s="21"/>
       <c r="S160" s="21"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:19">
       <c r="A161" s="20"/>
       <c r="B161" s="21"/>
       <c r="C161" s="20"/>
@@ -4797,7 +4903,7 @@
       <c r="O161" s="21"/>
       <c r="S161" s="21"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:19">
       <c r="A162" s="20"/>
       <c r="B162" s="21"/>
       <c r="C162" s="20"/>
@@ -4815,7 +4921,7 @@
       <c r="O162" s="21"/>
       <c r="S162" s="21"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:19">
       <c r="A163" s="20"/>
       <c r="B163" s="21"/>
       <c r="C163" s="20"/>
@@ -4833,7 +4939,7 @@
       <c r="O163" s="21"/>
       <c r="S163" s="21"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:19">
       <c r="A164" s="20"/>
       <c r="B164" s="21"/>
       <c r="C164" s="20"/>
@@ -4851,7 +4957,7 @@
       <c r="O164" s="21"/>
       <c r="S164" s="21"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:19">
       <c r="A165" s="20"/>
       <c r="B165" s="21"/>
       <c r="C165" s="20"/>
@@ -4869,7 +4975,7 @@
       <c r="O165" s="21"/>
       <c r="S165" s="21"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:19">
       <c r="A166" s="20"/>
       <c r="B166" s="21"/>
       <c r="C166" s="20"/>
@@ -4887,7 +4993,7 @@
       <c r="O166" s="21"/>
       <c r="S166" s="21"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:19">
       <c r="A167" s="20"/>
       <c r="B167" s="21"/>
       <c r="C167" s="20"/>
@@ -4905,7 +5011,7 @@
       <c r="O167" s="21"/>
       <c r="S167" s="21"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:19">
       <c r="A168" s="20"/>
       <c r="B168" s="21"/>
       <c r="C168" s="20"/>
@@ -4923,7 +5029,7 @@
       <c r="O168" s="21"/>
       <c r="S168" s="21"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:19">
       <c r="A169" s="20"/>
       <c r="B169" s="21"/>
       <c r="C169" s="20"/>
@@ -4941,7 +5047,7 @@
       <c r="O169" s="21"/>
       <c r="S169" s="21"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:19">
       <c r="A170" s="20"/>
       <c r="B170" s="21"/>
       <c r="C170" s="20"/>
@@ -4959,7 +5065,7 @@
       <c r="O170" s="21"/>
       <c r="S170" s="21"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:19">
       <c r="A171" s="20"/>
       <c r="B171" s="21"/>
       <c r="C171" s="20"/>
@@ -4977,7 +5083,7 @@
       <c r="O171" s="21"/>
       <c r="S171" s="21"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:19">
       <c r="A172" s="20"/>
       <c r="B172" s="21"/>
       <c r="C172" s="20"/>
@@ -4995,7 +5101,7 @@
       <c r="O172" s="21"/>
       <c r="S172" s="21"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:19">
       <c r="A173" s="20"/>
       <c r="B173" s="21"/>
       <c r="C173" s="20"/>
@@ -5013,7 +5119,7 @@
       <c r="O173" s="21"/>
       <c r="S173" s="21"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:19">
       <c r="A174" s="20"/>
       <c r="B174" s="21"/>
       <c r="C174" s="20"/>
@@ -5031,7 +5137,7 @@
       <c r="O174" s="21"/>
       <c r="S174" s="21"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:19">
       <c r="A175" s="20"/>
       <c r="B175" s="21"/>
       <c r="C175" s="20"/>
@@ -5049,7 +5155,7 @@
       <c r="O175" s="21"/>
       <c r="S175" s="21"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:19">
       <c r="A176" s="20"/>
       <c r="B176" s="21"/>
       <c r="C176" s="20"/>
@@ -5067,7 +5173,7 @@
       <c r="O176" s="21"/>
       <c r="S176" s="21"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:19">
       <c r="A177" s="20"/>
       <c r="B177" s="21"/>
       <c r="C177" s="20"/>
@@ -5085,7 +5191,7 @@
       <c r="O177" s="21"/>
       <c r="S177" s="21"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:19">
       <c r="A178" s="20"/>
       <c r="B178" s="21"/>
       <c r="C178" s="20"/>
@@ -5103,7 +5209,7 @@
       <c r="O178" s="21"/>
       <c r="S178" s="21"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:19">
       <c r="A179" s="20"/>
       <c r="B179" s="21"/>
       <c r="C179" s="20"/>
@@ -5121,7 +5227,7 @@
       <c r="O179" s="21"/>
       <c r="S179" s="21"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:19">
       <c r="A180" s="20"/>
       <c r="B180" s="21"/>
       <c r="C180" s="20"/>
@@ -5139,7 +5245,7 @@
       <c r="O180" s="21"/>
       <c r="S180" s="21"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:19">
       <c r="A181" s="20"/>
       <c r="B181" s="21"/>
       <c r="C181" s="20"/>
@@ -5157,7 +5263,7 @@
       <c r="O181" s="21"/>
       <c r="S181" s="21"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:19">
       <c r="A182" s="20"/>
       <c r="B182" s="21"/>
       <c r="C182" s="20"/>
@@ -5175,7 +5281,7 @@
       <c r="O182" s="21"/>
       <c r="S182" s="21"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:19">
       <c r="A183" s="20"/>
       <c r="B183" s="21"/>
       <c r="C183" s="20"/>
@@ -5193,7 +5299,7 @@
       <c r="O183" s="21"/>
       <c r="S183" s="21"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:19">
       <c r="A184" s="20"/>
       <c r="B184" s="21"/>
       <c r="C184" s="20"/>
@@ -5211,7 +5317,7 @@
       <c r="O184" s="21"/>
       <c r="S184" s="21"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:19">
       <c r="A185" s="20"/>
       <c r="B185" s="21"/>
       <c r="C185" s="20"/>
@@ -5229,7 +5335,7 @@
       <c r="O185" s="21"/>
       <c r="S185" s="21"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:19">
       <c r="A186" s="20"/>
       <c r="B186" s="21"/>
       <c r="C186" s="20"/>
@@ -5247,7 +5353,7 @@
       <c r="O186" s="21"/>
       <c r="S186" s="21"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:19">
       <c r="A187" s="20"/>
       <c r="B187" s="21"/>
       <c r="C187" s="20"/>
@@ -5265,38 +5371,38 @@
       <c r="O187" s="21"/>
       <c r="S187" s="21"/>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:19">
       <c r="A188" s="20"/>
       <c r="M188" s="20"/>
       <c r="N188" s="22"/>
       <c r="O188" s="21"/>
       <c r="S188" s="21"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:19">
       <c r="A189" s="20"/>
       <c r="M189" s="20"/>
       <c r="N189" s="22"/>
       <c r="O189" s="21"/>
       <c r="S189" s="21"/>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:19">
       <c r="A190" s="20"/>
       <c r="N190" s="22"/>
       <c r="O190" s="21"/>
       <c r="S190" s="21"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:19">
       <c r="A191" s="20"/>
       <c r="N191" s="22"/>
       <c r="O191" s="21"/>
       <c r="S191" s="21"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:19">
       <c r="A192" s="20"/>
       <c r="O192" s="21"/>
       <c r="S192" s="21"/>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:19">
       <c r="A193" s="20"/>
       <c r="O193" s="21"/>
       <c r="S193" s="21"/>
@@ -5310,14 +5416,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -5328,7 +5434,7 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -5354,7 +5460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5364,7 +5470,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -5374,7 +5480,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -5384,7 +5490,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -5394,7 +5500,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5404,7 +5510,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -5414,7 +5520,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -5424,7 +5530,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -5434,7 +5540,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -5444,7 +5550,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -5454,7 +5560,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -5464,7 +5570,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -5474,7 +5580,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -5484,7 +5590,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -5494,7 +5600,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -5504,7 +5610,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -5514,7 +5620,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -5524,7 +5630,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>

--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_极光组.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_极光组.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="63">
   <si>
     <t>No</t>
   </si>
@@ -214,13 +214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -232,186 +226,65 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="13.5"/>
       <color rgb="FFA6A6A6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,198 +299,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -694,256 +381,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="54">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -985,7 +436,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="53" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1003,22 +454,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1048,13 +499,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="53" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1075,73 +526,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="53" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="54">
+  <cellStyles count="8">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="常规 6" xfId="11"/>
-    <cellStyle name="注释" xfId="12" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="13" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="14" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="15" builtinId="11"/>
-    <cellStyle name="标题" xfId="16" builtinId="15"/>
-    <cellStyle name="甘特图" xfId="17"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="常规 9" xfId="20"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="常规 3 12" xfId="46"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="47" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="49" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="50" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="51"/>
-    <cellStyle name="常规 3" xfId="52"/>
-    <cellStyle name="常规 4" xfId="53"/>
+    <cellStyle name="常规 2" xfId="5"/>
+    <cellStyle name="常规 3" xfId="6"/>
+    <cellStyle name="常规 3 12" xfId="4"/>
+    <cellStyle name="常规 4" xfId="7"/>
+    <cellStyle name="常规 6" xfId="1"/>
+    <cellStyle name="常规 9" xfId="3"/>
+    <cellStyle name="甘特图" xfId="2"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <i val="0"/>
       </font>
       <fill>
@@ -1166,6 +571,74 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1177,7 +650,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1497,12 +970,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1529,7 +1001,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="27.75" spans="1:19">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="27">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1588,7 +1060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1638,7 +1110,7 @@
       <c r="S2" s="29"/>
       <c r="T2" s="38"/>
     </row>
-    <row r="3" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="3" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1688,7 +1160,7 @@
       <c r="S3" s="39"/>
       <c r="T3" s="40"/>
     </row>
-    <row r="4" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="4" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -1738,7 +1210,7 @@
       <c r="S4" s="39"/>
       <c r="T4" s="40"/>
     </row>
-    <row r="5" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="5" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -1788,7 +1260,7 @@
       <c r="S5" s="39"/>
       <c r="T5" s="40"/>
     </row>
-    <row r="6" s="10" customFormat="1" ht="17.25" customHeight="1" spans="1:20">
+    <row r="6" spans="1:20" s="10" customFormat="1" ht="17.25" customHeight="1">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -1838,7 +1310,7 @@
       <c r="S6" s="39"/>
       <c r="T6" s="40"/>
     </row>
-    <row r="7" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="7" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -1888,7 +1360,7 @@
       <c r="S7" s="39"/>
       <c r="T7" s="40"/>
     </row>
-    <row r="8" s="11" customFormat="1" ht="16.5" spans="1:20">
+    <row r="8" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -1938,7 +1410,7 @@
       <c r="S8" s="41"/>
       <c r="T8" s="42"/>
     </row>
-    <row r="9" s="11" customFormat="1" ht="16.5" spans="1:20">
+    <row r="9" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -1988,7 +1460,7 @@
       <c r="S9" s="41"/>
       <c r="T9" s="42"/>
     </row>
-    <row r="10" s="11" customFormat="1" ht="16.5" spans="1:20">
+    <row r="10" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -2038,7 +1510,7 @@
       <c r="S10" s="41"/>
       <c r="T10" s="42"/>
     </row>
-    <row r="11" s="11" customFormat="1" ht="16.5" spans="1:20">
+    <row r="11" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -2088,7 +1560,7 @@
       <c r="S11" s="41"/>
       <c r="T11" s="42"/>
     </row>
-    <row r="12" s="11" customFormat="1" ht="16.5" spans="1:20">
+    <row r="12" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -2123,16 +1595,22 @@
       <c r="L12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="29"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="29"/>
+      <c r="M12" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="20">
+        <v>42634</v>
+      </c>
+      <c r="O12" s="29" t="s">
+        <v>27</v>
+      </c>
       <c r="P12" s="34"/>
       <c r="Q12" s="34"/>
       <c r="R12" s="34"/>
       <c r="S12" s="41"/>
       <c r="T12" s="42"/>
     </row>
-    <row r="13" s="11" customFormat="1" ht="18.75" customHeight="1" spans="1:20">
+    <row r="13" spans="1:20" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -2182,7 +1660,7 @@
       <c r="S13" s="41"/>
       <c r="T13" s="42"/>
     </row>
-    <row r="14" s="11" customFormat="1" ht="16.5" spans="1:20">
+    <row r="14" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -2232,7 +1710,7 @@
       <c r="S14" s="41"/>
       <c r="T14" s="42"/>
     </row>
-    <row r="15" s="11" customFormat="1" ht="33" spans="1:20">
+    <row r="15" spans="1:20" s="11" customFormat="1" ht="33">
       <c r="A15" s="16">
         <v>14</v>
       </c>
@@ -2282,7 +1760,7 @@
       <c r="S15" s="41"/>
       <c r="T15" s="42"/>
     </row>
-    <row r="16" s="10" customFormat="1" ht="19.5" spans="1:20">
+    <row r="16" spans="1:20" s="10" customFormat="1" ht="19.5">
       <c r="A16" s="16"/>
       <c r="B16" s="23"/>
       <c r="C16" s="18"/>
@@ -2304,7 +1782,7 @@
       <c r="S16" s="39"/>
       <c r="T16" s="40"/>
     </row>
-    <row r="17" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="17" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A17" s="16"/>
       <c r="B17" s="22"/>
       <c r="C17" s="18"/>
@@ -2326,7 +1804,7 @@
       <c r="S17" s="39"/>
       <c r="T17" s="40"/>
     </row>
-    <row r="18" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="18" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A18" s="16"/>
       <c r="B18" s="22"/>
       <c r="C18" s="18"/>
@@ -2348,7 +1826,7 @@
       <c r="S18" s="39"/>
       <c r="T18" s="40"/>
     </row>
-    <row r="19" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="19" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A19" s="16"/>
       <c r="B19" s="22"/>
       <c r="C19" s="18"/>
@@ -2370,7 +1848,7 @@
       <c r="S19" s="39"/>
       <c r="T19" s="40"/>
     </row>
-    <row r="20" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="20" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A20" s="16"/>
       <c r="B20" s="22"/>
       <c r="C20" s="18"/>
@@ -2392,7 +1870,7 @@
       <c r="S20" s="39"/>
       <c r="T20" s="40"/>
     </row>
-    <row r="21" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="21" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A21" s="16"/>
       <c r="B21" s="22"/>
       <c r="C21" s="18"/>
@@ -2414,7 +1892,7 @@
       <c r="S21" s="39"/>
       <c r="T21" s="40"/>
     </row>
-    <row r="22" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="22" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A22" s="16"/>
       <c r="B22" s="22"/>
       <c r="C22" s="18"/>
@@ -2436,7 +1914,7 @@
       <c r="S22" s="39"/>
       <c r="T22" s="40"/>
     </row>
-    <row r="23" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="23" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A23" s="16"/>
       <c r="B23" s="24"/>
       <c r="C23" s="18"/>
@@ -2458,7 +1936,7 @@
       <c r="S23" s="39"/>
       <c r="T23" s="40"/>
     </row>
-    <row r="24" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="24" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A24" s="16"/>
       <c r="B24" s="24"/>
       <c r="C24" s="18"/>
@@ -2480,7 +1958,7 @@
       <c r="S24" s="39"/>
       <c r="T24" s="40"/>
     </row>
-    <row r="25" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="25" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A25" s="16"/>
       <c r="B25" s="24"/>
       <c r="C25" s="18"/>
@@ -2502,7 +1980,7 @@
       <c r="S25" s="39"/>
       <c r="T25" s="40"/>
     </row>
-    <row r="26" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="26" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A26" s="16"/>
       <c r="B26" s="24"/>
       <c r="C26" s="18"/>
@@ -2524,7 +2002,7 @@
       <c r="S26" s="39"/>
       <c r="T26" s="40"/>
     </row>
-    <row r="27" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="27" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A27" s="16"/>
       <c r="B27" s="24"/>
       <c r="C27" s="18"/>
@@ -2546,7 +2024,7 @@
       <c r="S27" s="39"/>
       <c r="T27" s="40"/>
     </row>
-    <row r="28" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="28" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A28" s="16"/>
       <c r="B28" s="24"/>
       <c r="C28" s="18"/>
@@ -2568,7 +2046,7 @@
       <c r="S28" s="39"/>
       <c r="T28" s="40"/>
     </row>
-    <row r="29" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="29" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A29" s="16"/>
       <c r="B29" s="24"/>
       <c r="C29" s="18"/>
@@ -2590,7 +2068,7 @@
       <c r="S29" s="39"/>
       <c r="T29" s="40"/>
     </row>
-    <row r="30" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="30" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A30" s="16"/>
       <c r="B30" s="24"/>
       <c r="C30" s="25"/>
@@ -2612,7 +2090,7 @@
       <c r="S30" s="39"/>
       <c r="T30" s="40"/>
     </row>
-    <row r="31" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="31" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A31" s="16"/>
       <c r="B31" s="24"/>
       <c r="C31" s="25"/>
@@ -2634,7 +2112,7 @@
       <c r="S31" s="39"/>
       <c r="T31" s="40"/>
     </row>
-    <row r="32" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="32" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A32" s="16"/>
       <c r="B32" s="24"/>
       <c r="C32" s="27"/>
@@ -2656,7 +2134,7 @@
       <c r="S32" s="39"/>
       <c r="T32" s="40"/>
     </row>
-    <row r="33" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="33" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A33" s="16"/>
       <c r="B33" s="24"/>
       <c r="C33" s="27"/>
@@ -2678,7 +2156,7 @@
       <c r="S33" s="39"/>
       <c r="T33" s="40"/>
     </row>
-    <row r="34" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="34" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A34" s="16"/>
       <c r="B34" s="24"/>
       <c r="C34" s="27"/>
@@ -2700,7 +2178,7 @@
       <c r="S34" s="39"/>
       <c r="T34" s="40"/>
     </row>
-    <row r="35" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="35" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A35" s="16"/>
       <c r="B35" s="24"/>
       <c r="C35" s="27"/>
@@ -2722,7 +2200,7 @@
       <c r="S35" s="39"/>
       <c r="T35" s="40"/>
     </row>
-    <row r="36" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="36" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A36" s="25"/>
       <c r="B36" s="24"/>
       <c r="C36" s="27"/>
@@ -2744,7 +2222,7 @@
       <c r="S36" s="37"/>
       <c r="T36" s="40"/>
     </row>
-    <row r="37" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="37" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A37" s="25"/>
       <c r="B37" s="24"/>
       <c r="C37" s="27"/>
@@ -2766,7 +2244,7 @@
       <c r="S37" s="37"/>
       <c r="T37" s="40"/>
     </row>
-    <row r="38" ht="16.5" spans="1:19">
+    <row r="38" spans="1:20" ht="16.5">
       <c r="A38" s="27"/>
       <c r="B38" s="24"/>
       <c r="C38" s="27"/>
@@ -2787,7 +2265,7 @@
       <c r="R38" s="27"/>
       <c r="S38" s="24"/>
     </row>
-    <row r="39" ht="16.5" spans="1:19">
+    <row r="39" spans="1:20" ht="16.5">
       <c r="A39" s="27"/>
       <c r="B39" s="24"/>
       <c r="C39" s="27"/>
@@ -2808,7 +2286,7 @@
       <c r="R39" s="27"/>
       <c r="S39" s="24"/>
     </row>
-    <row r="40" ht="16.5" spans="1:19">
+    <row r="40" spans="1:20" ht="16.5">
       <c r="A40" s="27"/>
       <c r="B40" s="24"/>
       <c r="C40" s="27"/>
@@ -2829,7 +2307,7 @@
       <c r="R40" s="27"/>
       <c r="S40" s="24"/>
     </row>
-    <row r="41" ht="16.5" spans="1:19">
+    <row r="41" spans="1:20" ht="16.5">
       <c r="A41" s="27"/>
       <c r="B41" s="24"/>
       <c r="C41" s="27"/>
@@ -2850,7 +2328,7 @@
       <c r="R41" s="27"/>
       <c r="S41" s="24"/>
     </row>
-    <row r="42" ht="16.5" spans="1:19">
+    <row r="42" spans="1:20" ht="16.5">
       <c r="A42" s="27"/>
       <c r="B42" s="24"/>
       <c r="C42" s="27"/>
@@ -2871,7 +2349,7 @@
       <c r="R42" s="27"/>
       <c r="S42" s="24"/>
     </row>
-    <row r="43" ht="16.5" spans="1:19">
+    <row r="43" spans="1:20" ht="16.5">
       <c r="A43" s="27"/>
       <c r="B43" s="24"/>
       <c r="C43" s="27"/>
@@ -2892,7 +2370,7 @@
       <c r="R43" s="27"/>
       <c r="S43" s="24"/>
     </row>
-    <row r="44" ht="16.5" spans="1:19">
+    <row r="44" spans="1:20" ht="16.5">
       <c r="A44" s="27"/>
       <c r="B44" s="24"/>
       <c r="C44" s="27"/>
@@ -2913,7 +2391,7 @@
       <c r="R44" s="27"/>
       <c r="S44" s="24"/>
     </row>
-    <row r="45" ht="16.5" spans="1:19">
+    <row r="45" spans="1:20" ht="16.5">
       <c r="A45" s="27"/>
       <c r="B45" s="24"/>
       <c r="C45" s="27"/>
@@ -2934,7 +2412,7 @@
       <c r="R45" s="27"/>
       <c r="S45" s="24"/>
     </row>
-    <row r="46" ht="16.5" spans="1:19">
+    <row r="46" spans="1:20" ht="16.5">
       <c r="A46" s="27"/>
       <c r="B46" s="24"/>
       <c r="C46" s="27"/>
@@ -2955,7 +2433,7 @@
       <c r="R46" s="27"/>
       <c r="S46" s="24"/>
     </row>
-    <row r="47" ht="16.5" spans="1:19">
+    <row r="47" spans="1:20" ht="16.5">
       <c r="A47" s="27"/>
       <c r="B47" s="24"/>
       <c r="C47" s="27"/>
@@ -2976,7 +2454,7 @@
       <c r="R47" s="27"/>
       <c r="S47" s="24"/>
     </row>
-    <row r="48" ht="16.5" spans="1:19">
+    <row r="48" spans="1:20" ht="16.5">
       <c r="A48" s="27"/>
       <c r="B48" s="24"/>
       <c r="C48" s="27"/>
@@ -2997,7 +2475,7 @@
       <c r="R48" s="27"/>
       <c r="S48" s="24"/>
     </row>
-    <row r="49" ht="16.5" spans="1:19">
+    <row r="49" spans="1:19" ht="16.5">
       <c r="A49" s="27"/>
       <c r="B49" s="24"/>
       <c r="C49" s="27"/>
@@ -3018,7 +2496,7 @@
       <c r="R49" s="27"/>
       <c r="S49" s="24"/>
     </row>
-    <row r="50" ht="16.5" spans="1:19">
+    <row r="50" spans="1:19" ht="16.5">
       <c r="A50" s="27"/>
       <c r="B50" s="24"/>
       <c r="C50" s="27"/>
@@ -3039,7 +2517,7 @@
       <c r="R50" s="27"/>
       <c r="S50" s="24"/>
     </row>
-    <row r="51" ht="16.5" spans="1:19">
+    <row r="51" spans="1:19" ht="16.5">
       <c r="A51" s="27"/>
       <c r="B51" s="24"/>
       <c r="C51" s="27"/>
@@ -3060,7 +2538,7 @@
       <c r="R51" s="27"/>
       <c r="S51" s="24"/>
     </row>
-    <row r="52" ht="16.5" spans="1:19">
+    <row r="52" spans="1:19" ht="16.5">
       <c r="A52" s="27"/>
       <c r="B52" s="24"/>
       <c r="C52" s="27"/>
@@ -3081,7 +2559,7 @@
       <c r="R52" s="27"/>
       <c r="S52" s="24"/>
     </row>
-    <row r="53" ht="16.5" spans="1:19">
+    <row r="53" spans="1:19" ht="16.5">
       <c r="A53" s="27"/>
       <c r="B53" s="24"/>
       <c r="C53" s="27"/>
@@ -3102,7 +2580,7 @@
       <c r="R53" s="27"/>
       <c r="S53" s="24"/>
     </row>
-    <row r="54" ht="16.5" spans="1:19">
+    <row r="54" spans="1:19" ht="16.5">
       <c r="A54" s="27"/>
       <c r="B54" s="24"/>
       <c r="C54" s="27"/>
@@ -3123,7 +2601,7 @@
       <c r="R54" s="27"/>
       <c r="S54" s="24"/>
     </row>
-    <row r="55" ht="16.5" spans="1:19">
+    <row r="55" spans="1:19" ht="16.5">
       <c r="A55" s="27"/>
       <c r="B55" s="24"/>
       <c r="C55" s="27"/>
@@ -3144,7 +2622,7 @@
       <c r="R55" s="27"/>
       <c r="S55" s="24"/>
     </row>
-    <row r="56" ht="16.5" spans="1:19">
+    <row r="56" spans="1:19" ht="16.5">
       <c r="A56" s="27"/>
       <c r="B56" s="24"/>
       <c r="C56" s="27"/>
@@ -3165,7 +2643,7 @@
       <c r="R56" s="27"/>
       <c r="S56" s="24"/>
     </row>
-    <row r="57" ht="16.5" spans="1:19">
+    <row r="57" spans="1:19" ht="16.5">
       <c r="A57" s="27"/>
       <c r="B57" s="24"/>
       <c r="C57" s="27"/>
@@ -3186,7 +2664,7 @@
       <c r="R57" s="27"/>
       <c r="S57" s="24"/>
     </row>
-    <row r="58" ht="16.5" spans="1:19">
+    <row r="58" spans="1:19" ht="16.5">
       <c r="A58" s="27"/>
       <c r="B58" s="24"/>
       <c r="C58" s="27"/>
@@ -3207,7 +2685,7 @@
       <c r="R58" s="27"/>
       <c r="S58" s="24"/>
     </row>
-    <row r="59" ht="16.5" spans="1:19">
+    <row r="59" spans="1:19" ht="16.5">
       <c r="A59" s="27"/>
       <c r="B59" s="24"/>
       <c r="C59" s="27"/>
@@ -3228,7 +2706,7 @@
       <c r="R59" s="27"/>
       <c r="S59" s="24"/>
     </row>
-    <row r="60" ht="16.5" spans="1:19">
+    <row r="60" spans="1:19" ht="16.5">
       <c r="A60" s="27"/>
       <c r="B60" s="24"/>
       <c r="C60" s="27"/>
@@ -3249,7 +2727,7 @@
       <c r="R60" s="27"/>
       <c r="S60" s="24"/>
     </row>
-    <row r="61" ht="16.5" spans="1:19">
+    <row r="61" spans="1:19" ht="16.5">
       <c r="A61" s="27"/>
       <c r="B61" s="24"/>
       <c r="C61" s="27"/>
@@ -3270,7 +2748,7 @@
       <c r="R61" s="27"/>
       <c r="S61" s="24"/>
     </row>
-    <row r="62" ht="16.5" spans="1:19">
+    <row r="62" spans="1:19" ht="16.5">
       <c r="A62" s="27"/>
       <c r="B62" s="24"/>
       <c r="C62" s="27"/>
@@ -3291,7 +2769,7 @@
       <c r="R62" s="27"/>
       <c r="S62" s="24"/>
     </row>
-    <row r="63" ht="16.5" spans="1:19">
+    <row r="63" spans="1:19" ht="16.5">
       <c r="A63" s="27"/>
       <c r="B63" s="24"/>
       <c r="C63" s="27"/>
@@ -3312,7 +2790,7 @@
       <c r="R63" s="27"/>
       <c r="S63" s="24"/>
     </row>
-    <row r="64" ht="16.5" spans="1:19">
+    <row r="64" spans="1:19" ht="16.5">
       <c r="A64" s="27"/>
       <c r="B64" s="24"/>
       <c r="C64" s="27"/>
@@ -3333,7 +2811,7 @@
       <c r="R64" s="27"/>
       <c r="S64" s="24"/>
     </row>
-    <row r="65" ht="16.5" spans="1:19">
+    <row r="65" spans="1:19" ht="16.5">
       <c r="A65" s="27"/>
       <c r="B65" s="24"/>
       <c r="C65" s="27"/>
@@ -3354,7 +2832,7 @@
       <c r="R65" s="27"/>
       <c r="S65" s="24"/>
     </row>
-    <row r="66" ht="16.5" spans="1:19">
+    <row r="66" spans="1:19" ht="16.5">
       <c r="A66" s="27"/>
       <c r="B66" s="24"/>
       <c r="C66" s="27"/>
@@ -3375,7 +2853,7 @@
       <c r="R66" s="27"/>
       <c r="S66" s="24"/>
     </row>
-    <row r="67" ht="16.5" spans="1:19">
+    <row r="67" spans="1:19" ht="16.5">
       <c r="A67" s="27"/>
       <c r="B67" s="24"/>
       <c r="C67" s="27"/>
@@ -3396,7 +2874,7 @@
       <c r="R67" s="27"/>
       <c r="S67" s="24"/>
     </row>
-    <row r="68" ht="16.5" spans="1:19">
+    <row r="68" spans="1:19" ht="16.5">
       <c r="A68" s="27"/>
       <c r="B68" s="24"/>
       <c r="C68" s="27"/>
@@ -3417,7 +2895,7 @@
       <c r="R68" s="27"/>
       <c r="S68" s="24"/>
     </row>
-    <row r="69" ht="16.5" spans="1:19">
+    <row r="69" spans="1:19" ht="16.5">
       <c r="A69" s="27"/>
       <c r="B69" s="24"/>
       <c r="C69" s="27"/>
@@ -3438,7 +2916,7 @@
       <c r="R69" s="27"/>
       <c r="S69" s="24"/>
     </row>
-    <row r="70" ht="16.5" spans="1:19">
+    <row r="70" spans="1:19" ht="16.5">
       <c r="A70" s="27"/>
       <c r="B70" s="24"/>
       <c r="C70" s="27"/>
@@ -3459,7 +2937,7 @@
       <c r="R70" s="27"/>
       <c r="S70" s="24"/>
     </row>
-    <row r="71" ht="16.5" spans="1:19">
+    <row r="71" spans="1:19" ht="16.5">
       <c r="A71" s="27"/>
       <c r="B71" s="24"/>
       <c r="C71" s="27"/>
@@ -3480,7 +2958,7 @@
       <c r="R71" s="27"/>
       <c r="S71" s="24"/>
     </row>
-    <row r="72" ht="16.5" spans="1:19">
+    <row r="72" spans="1:19" ht="16.5">
       <c r="A72" s="27"/>
       <c r="B72" s="24"/>
       <c r="C72" s="27"/>
@@ -3501,7 +2979,7 @@
       <c r="R72" s="27"/>
       <c r="S72" s="24"/>
     </row>
-    <row r="73" ht="16.5" spans="1:19">
+    <row r="73" spans="1:19" ht="16.5">
       <c r="A73" s="27"/>
       <c r="B73" s="24"/>
       <c r="C73" s="27"/>
@@ -3522,7 +3000,7 @@
       <c r="R73" s="27"/>
       <c r="S73" s="24"/>
     </row>
-    <row r="74" ht="16.5" spans="1:19">
+    <row r="74" spans="1:19" ht="16.5">
       <c r="A74" s="27"/>
       <c r="B74" s="24"/>
       <c r="C74" s="27"/>
@@ -3543,7 +3021,7 @@
       <c r="R74" s="27"/>
       <c r="S74" s="24"/>
     </row>
-    <row r="75" ht="16.5" spans="1:19">
+    <row r="75" spans="1:19" ht="16.5">
       <c r="A75" s="27"/>
       <c r="B75" s="24"/>
       <c r="C75" s="27"/>
@@ -3564,7 +3042,7 @@
       <c r="R75" s="27"/>
       <c r="S75" s="24"/>
     </row>
-    <row r="76" ht="16.5" spans="1:19">
+    <row r="76" spans="1:19" ht="16.5">
       <c r="A76" s="27"/>
       <c r="B76" s="24"/>
       <c r="C76" s="27"/>
@@ -3585,7 +3063,7 @@
       <c r="R76" s="27"/>
       <c r="S76" s="24"/>
     </row>
-    <row r="77" ht="16.5" spans="1:19">
+    <row r="77" spans="1:19" ht="16.5">
       <c r="A77" s="27"/>
       <c r="B77" s="24"/>
       <c r="C77" s="27"/>
@@ -3606,7 +3084,7 @@
       <c r="R77" s="27"/>
       <c r="S77" s="24"/>
     </row>
-    <row r="78" ht="16.5" spans="1:19">
+    <row r="78" spans="1:19" ht="16.5">
       <c r="A78" s="27"/>
       <c r="B78" s="24"/>
       <c r="C78" s="27"/>
@@ -3627,7 +3105,7 @@
       <c r="R78" s="27"/>
       <c r="S78" s="24"/>
     </row>
-    <row r="79" ht="16.5" spans="1:19">
+    <row r="79" spans="1:19" ht="16.5">
       <c r="A79" s="27"/>
       <c r="B79" s="24"/>
       <c r="C79" s="27"/>
@@ -3648,7 +3126,7 @@
       <c r="R79" s="27"/>
       <c r="S79" s="24"/>
     </row>
-    <row r="80" ht="16.5" spans="1:19">
+    <row r="80" spans="1:19" ht="16.5">
       <c r="A80" s="27"/>
       <c r="B80" s="24"/>
       <c r="C80" s="27"/>
@@ -3669,7 +3147,7 @@
       <c r="R80" s="27"/>
       <c r="S80" s="24"/>
     </row>
-    <row r="81" ht="16.5" spans="1:19">
+    <row r="81" spans="1:19" ht="16.5">
       <c r="A81" s="27"/>
       <c r="B81" s="24"/>
       <c r="C81" s="27"/>
@@ -3690,7 +3168,7 @@
       <c r="R81" s="27"/>
       <c r="S81" s="24"/>
     </row>
-    <row r="82" ht="16.5" spans="1:19">
+    <row r="82" spans="1:19" ht="16.5">
       <c r="A82" s="27"/>
       <c r="B82" s="24"/>
       <c r="C82" s="27"/>
@@ -3711,7 +3189,7 @@
       <c r="R82" s="27"/>
       <c r="S82" s="24"/>
     </row>
-    <row r="83" ht="16.5" spans="1:19">
+    <row r="83" spans="1:19" ht="16.5">
       <c r="A83" s="27"/>
       <c r="B83" s="24"/>
       <c r="C83" s="27"/>
@@ -3732,7 +3210,7 @@
       <c r="R83" s="27"/>
       <c r="S83" s="24"/>
     </row>
-    <row r="84" ht="16.5" spans="1:19">
+    <row r="84" spans="1:19" ht="16.5">
       <c r="A84" s="27"/>
       <c r="B84" s="24"/>
       <c r="C84" s="27"/>
@@ -3753,7 +3231,7 @@
       <c r="R84" s="27"/>
       <c r="S84" s="24"/>
     </row>
-    <row r="85" ht="16.5" spans="1:19">
+    <row r="85" spans="1:19" ht="16.5">
       <c r="A85" s="27"/>
       <c r="B85" s="24"/>
       <c r="C85" s="27"/>
@@ -3774,7 +3252,7 @@
       <c r="R85" s="27"/>
       <c r="S85" s="24"/>
     </row>
-    <row r="86" ht="16.5" spans="1:19">
+    <row r="86" spans="1:19" ht="16.5">
       <c r="A86" s="27"/>
       <c r="B86" s="24"/>
       <c r="C86" s="27"/>
@@ -3795,7 +3273,7 @@
       <c r="R86" s="27"/>
       <c r="S86" s="24"/>
     </row>
-    <row r="87" ht="16.5" spans="1:19">
+    <row r="87" spans="1:19" ht="16.5">
       <c r="A87" s="27"/>
       <c r="B87" s="24"/>
       <c r="C87" s="27"/>
@@ -3816,7 +3294,7 @@
       <c r="R87" s="27"/>
       <c r="S87" s="24"/>
     </row>
-    <row r="88" ht="16.5" spans="1:19">
+    <row r="88" spans="1:19" ht="16.5">
       <c r="A88" s="27"/>
       <c r="B88" s="24"/>
       <c r="C88" s="27"/>
@@ -3837,7 +3315,7 @@
       <c r="R88" s="27"/>
       <c r="S88" s="24"/>
     </row>
-    <row r="89" ht="16.5" spans="1:19">
+    <row r="89" spans="1:19" ht="16.5">
       <c r="A89" s="27"/>
       <c r="B89" s="24"/>
       <c r="C89" s="27"/>
@@ -3858,7 +3336,7 @@
       <c r="R89" s="27"/>
       <c r="S89" s="24"/>
     </row>
-    <row r="90" ht="16.5" spans="1:19">
+    <row r="90" spans="1:19" ht="16.5">
       <c r="A90" s="27"/>
       <c r="B90" s="24"/>
       <c r="C90" s="27"/>
@@ -3879,7 +3357,7 @@
       <c r="R90" s="27"/>
       <c r="S90" s="24"/>
     </row>
-    <row r="91" ht="16.5" spans="1:19">
+    <row r="91" spans="1:19" ht="16.5">
       <c r="A91" s="27"/>
       <c r="B91" s="24"/>
       <c r="C91" s="27"/>
@@ -3900,7 +3378,7 @@
       <c r="R91" s="27"/>
       <c r="S91" s="24"/>
     </row>
-    <row r="92" ht="16.5" spans="1:19">
+    <row r="92" spans="1:19" ht="16.5">
       <c r="A92" s="27"/>
       <c r="B92" s="24"/>
       <c r="C92" s="27"/>
@@ -5867,22 +5345,21 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:S13"/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -5919,7 +5396,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6100,12 +5577,12 @@
       <c r="H19" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"致命,严重,一般,轻微"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>